--- a/templates/excel/2-ccl-p20.xlsx
+++ b/templates/excel/2-ccl-p20.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpspreadsheet\api\templates\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_lite_8_4\www\spreadsheet-api\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB6B892-8C26-452A-BB75-A491122303DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CCL 2 " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -89,9 +99,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -226,9 +236,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,13 +246,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,19 +271,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -282,13 +289,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -326,7 +333,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -370,7 +383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -664,119 +683,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-    </row>
-    <row r="2" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="19" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="20" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="19"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -814,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -828,7 +847,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -842,7 +861,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -856,7 +875,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -870,7 +889,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -884,7 +903,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
@@ -898,7 +917,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -912,7 +931,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -926,7 +945,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -940,7 +959,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -954,7 +973,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -968,7 +987,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -982,7 +1001,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -996,7 +1015,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -1010,7 +1029,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
@@ -1024,7 +1043,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1038,7 +1057,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1052,7 +1071,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1066,7 +1085,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1080,7 +1099,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1094,11 +1113,11 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:12" s="14" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="9">
         <f>SUM(C7:C26)</f>
         <v>0</v>
@@ -1122,79 +1141,79 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="19" t="s">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="19" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="18"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20" t="s">
+      <c r="F32" s="19"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="19"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
@@ -1246,7 +1265,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1260,7 +1279,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -1274,7 +1293,7 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1288,7 +1307,7 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1302,7 +1321,7 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1316,7 +1335,7 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1330,7 +1349,7 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1344,7 +1363,7 @@
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -1358,7 +1377,7 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -1372,7 +1391,7 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -1386,7 +1405,7 @@
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1400,7 +1419,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -1414,7 +1433,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -1428,7 +1447,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -1442,7 +1461,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -1456,7 +1475,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -1470,7 +1489,7 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1484,7 +1503,7 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -1498,7 +1517,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -1512,11 +1531,11 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+    <row r="54" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="16"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="9">
         <f>SUM(C34:C53)</f>
         <v>0</v>
@@ -1542,16 +1561,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A30:L30"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:L30"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I4:J4"/>
@@ -1561,13 +1587,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47" right="0.27" top="0.25" bottom="0.13" header="0.25" footer="0.25"/>
